--- a/tasks - AmirReleased.xlsx
+++ b/tasks - AmirReleased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Login Page</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Sitin popup height</t>
+  </si>
+  <si>
+    <t>card and screen resize based on: 1- middle of table ratio, 2- minimum height and width</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +480,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tasks - AmirReleased.xlsx
+++ b/tasks - AmirReleased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Login Page</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>card and screen resize based on: 1- middle of table ratio, 2- minimum height and width</t>
+  </si>
+  <si>
+    <t>while taking a seat, a server side validation is required to check the conditions we have in lobby.js joingame function</t>
+  </si>
+  <si>
+    <t>add total chips to the playerstatus object.</t>
   </si>
 </sst>
 </file>
@@ -400,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,6 +491,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
